--- a/data/course_data/Units/Unit_Times.xlsx
+++ b/data/course_data/Units/Unit_Times.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Year 3\Dissertation\Data Gathering\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\Year 3\Dissertation\UoP_Dissertation\data\course_data\Units\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2545" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="338">
   <si>
     <t>Day</t>
   </si>
@@ -1102,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1118,6 +1118,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1421,28 +1424,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H378"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="104.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="104.26953125" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" customWidth="1"/>
+    <col min="5" max="5" width="9.26953125" customWidth="1"/>
+    <col min="6" max="6" width="18.7265625" customWidth="1"/>
+    <col min="7" max="7" width="17.7265625" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="23.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -1460,12 +1463,12 @@
         <v>337</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -1483,12 +1486,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -1506,12 +1509,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -1529,12 +1532,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
@@ -1552,12 +1555,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>14</v>
@@ -1575,12 +1578,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -1598,12 +1601,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -1621,12 +1624,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
@@ -1644,12 +1647,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>14</v>
@@ -1667,12 +1670,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
@@ -1690,18 +1693,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
+      <c r="D12" s="7">
+        <v>0.41666666666666669</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1713,12 +1716,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>32</v>
@@ -1736,12 +1739,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>22</v>
@@ -1759,12 +1762,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>14</v>
@@ -1782,12 +1785,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>14</v>
@@ -1805,12 +1808,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -1828,12 +1831,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>32</v>
@@ -1851,12 +1854,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>14</v>
@@ -1874,12 +1877,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>14</v>
@@ -1897,12 +1900,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>32</v>
@@ -1920,12 +1923,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>32</v>
@@ -1943,12 +1946,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>14</v>
@@ -1966,12 +1969,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
@@ -1989,12 +1992,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>14</v>
@@ -2012,12 +2015,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>41</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
@@ -2035,12 +2038,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>32</v>
@@ -2058,12 +2061,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>32</v>
@@ -2081,12 +2084,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>32</v>
@@ -2104,12 +2107,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>17</v>
@@ -2127,12 +2130,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>22</v>
@@ -2150,12 +2153,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>22</v>
@@ -2173,12 +2176,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>32</v>
@@ -2196,12 +2199,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
@@ -2219,12 +2222,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>14</v>
@@ -2242,12 +2245,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>14</v>
@@ -2266,12 +2269,12 @@
       </c>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>14</v>
@@ -2289,12 +2292,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>59</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>14</v>
@@ -2312,12 +2315,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>32</v>
@@ -2335,12 +2338,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>6</v>
@@ -2358,12 +2361,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>6</v>
@@ -2381,12 +2384,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>14</v>
@@ -2404,12 +2407,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>32</v>
@@ -2427,12 +2430,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>32</v>
@@ -2450,12 +2453,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>32</v>
@@ -2473,12 +2476,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>6</v>
@@ -2496,12 +2499,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>6</v>
@@ -2519,12 +2522,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>6</v>
@@ -2542,12 +2545,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>14</v>
@@ -2565,12 +2568,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>14</v>
@@ -2588,12 +2591,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>6</v>
@@ -2611,12 +2614,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>17</v>
@@ -2634,12 +2637,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>32</v>
@@ -2657,12 +2660,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>6</v>
@@ -2680,12 +2683,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>6</v>
@@ -2703,12 +2706,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>32</v>
@@ -2726,12 +2729,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
@@ -2749,12 +2752,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>32</v>
@@ -2772,12 +2775,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>14</v>
@@ -2795,12 +2798,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
@@ -2818,12 +2821,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>14</v>
@@ -2841,12 +2844,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>14</v>
@@ -2864,12 +2867,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>14</v>
@@ -2887,12 +2890,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
@@ -2910,12 +2913,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
@@ -2933,12 +2936,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
@@ -2956,12 +2959,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
@@ -2979,12 +2982,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
@@ -3002,12 +3005,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
@@ -3025,12 +3028,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
@@ -3048,12 +3051,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>6</v>
@@ -3071,12 +3074,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>6</v>
@@ -3094,12 +3097,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>6</v>
@@ -3117,12 +3120,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>6</v>
@@ -3140,12 +3143,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
@@ -3163,12 +3166,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
@@ -3186,12 +3189,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>32</v>
@@ -3209,12 +3212,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>32</v>
@@ -3232,12 +3235,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
@@ -3255,12 +3258,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
@@ -3278,12 +3281,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
@@ -3301,12 +3304,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
@@ -3324,12 +3327,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>32</v>
@@ -3347,12 +3350,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>32</v>
@@ -3370,12 +3373,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
@@ -3393,12 +3396,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
@@ -3416,12 +3419,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>22</v>
@@ -3439,12 +3442,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>22</v>
@@ -3462,12 +3465,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>22</v>
@@ -3485,12 +3488,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>22</v>
@@ -3508,12 +3511,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>6</v>
@@ -3531,12 +3534,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>6</v>
@@ -3554,12 +3557,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>6</v>
@@ -3577,12 +3580,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>6</v>
@@ -3600,12 +3603,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>6</v>
@@ -3623,12 +3626,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>6</v>
@@ -3646,12 +3649,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>6</v>
@@ -3669,12 +3672,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>6</v>
@@ -3692,12 +3695,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>6</v>
@@ -3715,12 +3718,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>14</v>
@@ -3738,12 +3741,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>6</v>
@@ -3761,12 +3764,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>14</v>
@@ -3784,12 +3787,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>14</v>
@@ -3807,12 +3810,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>6</v>
@@ -3830,12 +3833,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>14</v>
@@ -3853,12 +3856,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>14</v>
@@ -3876,12 +3879,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>14</v>
@@ -3899,12 +3902,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>14</v>
@@ -3922,12 +3925,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>14</v>
@@ -3945,12 +3948,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>32</v>
@@ -3968,12 +3971,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -3991,12 +3994,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>32</v>
@@ -4014,12 +4017,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>17</v>
@@ -4037,12 +4040,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>32</v>
@@ -4060,12 +4063,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>17</v>
@@ -4083,12 +4086,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>22</v>
@@ -4106,12 +4109,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>6</v>
@@ -4129,12 +4132,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>17</v>
@@ -4152,12 +4155,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>17</v>
@@ -4175,12 +4178,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>14</v>
@@ -4198,12 +4201,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>17</v>
@@ -4221,12 +4224,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>17</v>
@@ -4244,12 +4247,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>6</v>
@@ -4267,12 +4270,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>22</v>
@@ -4290,12 +4293,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>14</v>
@@ -4313,12 +4316,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>6</v>
@@ -4336,12 +4339,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>17</v>
@@ -4359,12 +4362,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>147</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>17</v>
@@ -4382,12 +4385,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>6</v>
@@ -4405,12 +4408,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>32</v>
@@ -4428,12 +4431,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>32</v>
@@ -4451,12 +4454,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>6</v>
@@ -4474,12 +4477,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>22</v>
@@ -4497,12 +4500,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>22</v>
@@ -4520,12 +4523,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>22</v>
@@ -4543,12 +4546,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>17</v>
@@ -4566,12 +4569,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>156</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>157</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>22</v>
@@ -4589,12 +4592,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>22</v>
@@ -4612,12 +4615,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>22</v>
@@ -4635,12 +4638,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>22</v>
@@ -4658,12 +4661,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>22</v>
@@ -4681,12 +4684,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>22</v>
@@ -4704,12 +4707,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>32</v>
@@ -4727,12 +4730,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>32</v>
@@ -4750,12 +4753,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>22</v>
@@ -4773,12 +4776,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>14</v>
@@ -4796,12 +4799,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>14</v>
@@ -4819,12 +4822,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>22</v>
@@ -4842,12 +4845,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>162</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>22</v>
@@ -4865,12 +4868,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>6</v>
@@ -4888,12 +4891,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>6</v>
@@ -4911,12 +4914,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>6</v>
@@ -4934,12 +4937,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>6</v>
@@ -4957,12 +4960,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>6</v>
@@ -4980,12 +4983,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>166</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>6</v>
@@ -5003,12 +5006,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>17</v>
@@ -5026,12 +5029,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>17</v>
@@ -5049,12 +5052,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>32</v>
@@ -5072,12 +5075,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>32</v>
@@ -5095,12 +5098,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>22</v>
@@ -5118,12 +5121,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B161" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>14</v>
@@ -5141,12 +5144,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>14</v>
@@ -5164,12 +5167,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>6</v>
@@ -5187,12 +5190,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>17</v>
@@ -5210,12 +5213,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>6</v>
@@ -5233,12 +5236,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>14</v>
@@ -5256,12 +5259,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>6</v>
@@ -5279,12 +5282,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>6</v>
@@ -5302,12 +5305,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>32</v>
@@ -5325,12 +5328,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>14</v>
@@ -5348,12 +5351,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>14</v>
@@ -5371,12 +5374,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>14</v>
@@ -5394,12 +5397,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>14</v>
@@ -5417,12 +5420,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>14</v>
@@ -5440,12 +5443,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>14</v>
@@ -5463,12 +5466,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>17</v>
@@ -5486,12 +5489,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>17</v>
@@ -5509,12 +5512,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>17</v>
@@ -5532,12 +5535,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>17</v>
@@ -5555,12 +5558,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>6</v>
@@ -5578,12 +5581,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>32</v>
@@ -5601,12 +5604,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>14</v>
@@ -5624,12 +5627,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>17</v>
@@ -5647,12 +5650,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>32</v>
@@ -5670,12 +5673,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>6</v>
@@ -5693,12 +5696,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>6</v>
@@ -5716,12 +5719,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>6</v>
@@ -5739,12 +5742,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>32</v>
@@ -5762,12 +5765,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>32</v>
@@ -5785,12 +5788,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>201</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>32</v>
@@ -5808,12 +5811,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>32</v>
@@ -5831,12 +5834,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>17</v>
@@ -5854,12 +5857,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>17</v>
@@ -5877,12 +5880,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B194" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>14</v>
@@ -5900,12 +5903,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>14</v>
@@ -5923,12 +5926,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>14</v>
@@ -5946,12 +5949,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>32</v>
@@ -5969,12 +5972,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>32</v>
@@ -5992,12 +5995,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>14</v>
@@ -6015,12 +6018,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>14</v>
@@ -6038,12 +6041,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>14</v>
@@ -6061,12 +6064,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>14</v>
@@ -6084,12 +6087,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>14</v>
@@ -6107,12 +6110,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>32</v>
@@ -6130,12 +6133,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>32</v>
@@ -6153,12 +6156,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>213</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>22</v>
@@ -6176,12 +6179,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>14</v>
@@ -6199,12 +6202,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>14</v>
@@ -6222,12 +6225,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>32</v>
@@ -6245,12 +6248,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>32</v>
@@ -6268,12 +6271,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>32</v>
@@ -6291,12 +6294,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>32</v>
@@ -6314,12 +6317,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>6</v>
@@ -6337,12 +6340,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>218</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>219</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>6</v>
@@ -6360,12 +6363,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>32</v>
@@ -6383,12 +6386,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>32</v>
@@ -6406,12 +6409,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>6</v>
@@ -6429,12 +6432,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>14</v>
@@ -6452,12 +6455,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>14</v>
@@ -6475,12 +6478,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>6</v>
@@ -6498,12 +6501,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>22</v>
@@ -6521,12 +6524,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>32</v>
@@ -6544,12 +6547,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>14</v>
@@ -6567,12 +6570,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>14</v>
@@ -6590,12 +6593,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>14</v>
@@ -6613,12 +6616,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>14</v>
@@ -6636,12 +6639,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>14</v>
@@ -6659,12 +6662,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>14</v>
@@ -6682,12 +6685,12 @@
         <v>129</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>6</v>
@@ -6705,12 +6708,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>6</v>
@@ -6728,12 +6731,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B231" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>6</v>
@@ -6751,12 +6754,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>6</v>
@@ -6774,12 +6777,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>6</v>
@@ -6797,12 +6800,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>6</v>
@@ -6820,12 +6823,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>22</v>
@@ -6843,12 +6846,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>22</v>
@@ -6866,12 +6869,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>32</v>
@@ -6889,12 +6892,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>32</v>
@@ -6912,12 +6915,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B239" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>32</v>
@@ -6935,12 +6938,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>32</v>
@@ -6958,12 +6961,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B241" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>32</v>
@@ -6981,12 +6984,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>32</v>
@@ -7004,12 +7007,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B243" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>32</v>
@@ -7027,12 +7030,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>32</v>
@@ -7050,12 +7053,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B245" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>32</v>
@@ -7073,12 +7076,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>32</v>
@@ -7096,12 +7099,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>32</v>
@@ -7119,12 +7122,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>32</v>
@@ -7142,12 +7145,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>22</v>
@@ -7165,12 +7168,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B250" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>22</v>
@@ -7188,12 +7191,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>22</v>
@@ -7211,12 +7214,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>22</v>
@@ -7234,12 +7237,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B253" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="B253" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>22</v>
@@ -7257,12 +7260,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B254" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>14</v>
@@ -7280,12 +7283,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B255" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>22</v>
@@ -7303,12 +7306,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>14</v>
@@ -7326,12 +7329,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>17</v>
@@ -7349,12 +7352,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>248</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>17</v>
@@ -7372,12 +7375,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>17</v>
@@ -7395,12 +7398,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B260" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>14</v>
@@ -7418,12 +7421,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B261" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>14</v>
@@ -7441,12 +7444,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>14</v>
@@ -7464,12 +7467,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>14</v>
@@ -7487,12 +7490,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>6</v>
@@ -7510,12 +7513,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>14</v>
@@ -7533,12 +7536,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B266" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>17</v>
@@ -7556,12 +7559,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B267" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>6</v>
@@ -7579,12 +7582,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>17</v>
@@ -7602,12 +7605,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B269" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>6</v>
@@ -7625,12 +7628,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>17</v>
@@ -7648,12 +7651,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>256</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>257</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>6</v>
@@ -7671,12 +7674,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B272" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B272" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>32</v>
@@ -7694,12 +7697,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B273" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B273" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>32</v>
@@ -7717,12 +7720,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B274" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>32</v>
@@ -7740,12 +7743,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B275" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B275" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>32</v>
@@ -7763,12 +7766,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B276" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B276" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>32</v>
@@ -7786,12 +7789,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B277" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="B277" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>32</v>
@@ -7809,12 +7812,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B278" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="B278" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>14</v>
@@ -7832,12 +7835,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B279" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="B279" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>14</v>
@@ -7855,12 +7858,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B280" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="B280" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>14</v>
@@ -7878,12 +7881,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B281" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B281" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>14</v>
@@ -7901,12 +7904,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B282" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B282" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>14</v>
@@ -7924,12 +7927,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B283" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B283" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>6</v>
@@ -7947,12 +7950,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B284" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B284" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>6</v>
@@ -7970,12 +7973,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B285" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B285" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>22</v>
@@ -7993,12 +7996,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B286" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B286" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>22</v>
@@ -8016,12 +8019,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B287" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B287" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>32</v>
@@ -8039,12 +8042,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B288" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B288" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>6</v>
@@ -8062,12 +8065,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B289" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B289" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>32</v>
@@ -8085,12 +8088,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B290" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B290" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>6</v>
@@ -8108,12 +8111,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B291" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>6</v>
@@ -8131,12 +8134,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B292" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>6</v>
@@ -8154,12 +8157,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B293" s="2" t="s">
         <v>276</v>
-      </c>
-      <c r="B293" s="2" t="s">
-        <v>277</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>6</v>
@@ -8177,12 +8180,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B294" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B294" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>32</v>
@@ -8200,12 +8203,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B295" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B295" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>6</v>
@@ -8223,12 +8226,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B296" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B296" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>32</v>
@@ -8246,12 +8249,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B297" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B297" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>6</v>
@@ -8269,12 +8272,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B298" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="B298" s="2" t="s">
-        <v>279</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>32</v>
@@ -8292,12 +8295,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B299" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B299" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>17</v>
@@ -8315,12 +8318,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B300" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B300" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>17</v>
@@ -8338,12 +8341,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B301" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B301" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>17</v>
@@ -8361,12 +8364,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B302" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>281</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>17</v>
@@ -8384,12 +8387,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B303" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B303" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>22</v>
@@ -8407,12 +8410,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B304" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>17</v>
@@ -8430,12 +8433,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B305" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B305" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>17</v>
@@ -8453,12 +8456,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B306" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B306" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>17</v>
@@ -8476,12 +8479,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B307" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B307" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>17</v>
@@ -8499,12 +8502,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B308" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B308" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>32</v>
@@ -8522,12 +8525,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B309" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B309" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>32</v>
@@ -8545,12 +8548,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B310" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>32</v>
@@ -8568,12 +8571,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B311" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>17</v>
@@ -8591,12 +8594,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B312" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>17</v>
@@ -8614,12 +8617,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B313" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B313" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>22</v>
@@ -8637,12 +8640,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B314" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B314" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>22</v>
@@ -8660,12 +8663,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B315" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B315" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>17</v>
@@ -8683,12 +8686,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B316" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B316" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>17</v>
@@ -8706,12 +8709,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B317" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B317" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>22</v>
@@ -8729,12 +8732,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B318" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B318" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>22</v>
@@ -8752,12 +8755,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B319" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B319" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>17</v>
@@ -8775,12 +8778,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B320" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B320" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>17</v>
@@ -8798,12 +8801,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B321" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B321" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>22</v>
@@ -8821,12 +8824,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B322" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B322" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>22</v>
@@ -8844,12 +8847,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B323" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B323" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>14</v>
@@ -8867,12 +8870,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B324" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B324" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>6</v>
@@ -8890,12 +8893,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B325" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>6</v>
@@ -8913,12 +8916,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B326" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>22</v>
@@ -8936,12 +8939,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B327" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B327" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>22</v>
@@ -8959,12 +8962,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B328" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B328" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>14</v>
@@ -8982,12 +8985,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B329" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>6</v>
@@ -9005,12 +9008,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B330" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>22</v>
@@ -9028,12 +9031,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B331" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>6</v>
@@ -9051,12 +9054,12 @@
         <v>83</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B332" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>32</v>
@@ -9074,12 +9077,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B333" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>6</v>
@@ -9097,12 +9100,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B334" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>6</v>
@@ -9120,12 +9123,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B335" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>22</v>
@@ -9143,12 +9146,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B336" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>22</v>
@@ -9166,12 +9169,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B337" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>6</v>
@@ -9189,12 +9192,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B338" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>6</v>
@@ -9212,12 +9215,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B339" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>17</v>
@@ -9235,12 +9238,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B340" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>17</v>
@@ -9258,12 +9261,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B341" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>17</v>
@@ -9281,12 +9284,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B342" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>17</v>
@@ -9304,12 +9307,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B343" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>17</v>
@@ -9327,12 +9330,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B344" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>17</v>
@@ -9350,12 +9353,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B345" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>14</v>
@@ -9373,12 +9376,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B346" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>14</v>
@@ -9396,12 +9399,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B347" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>6</v>
@@ -9419,12 +9422,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B348" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>14</v>
@@ -9442,12 +9445,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B349" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>6</v>
@@ -9465,12 +9468,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B350" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B350" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>6</v>
@@ -9488,12 +9491,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B351" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B351" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>6</v>
@@ -9511,12 +9514,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B352" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B352" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>17</v>
@@ -9534,12 +9537,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B353" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B353" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>17</v>
@@ -9557,12 +9560,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B354" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B354" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>17</v>
@@ -9580,12 +9583,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B355" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B355" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>17</v>
@@ -9603,12 +9606,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B356" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B356" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>17</v>
@@ -9626,12 +9629,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B357" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>17</v>
@@ -9649,12 +9652,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B358" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B358" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>22</v>
@@ -9672,12 +9675,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B359" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B359" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>14</v>
@@ -9695,12 +9698,12 @@
         <v>141</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B360" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>22</v>
@@ -9718,12 +9721,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B361" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>17</v>
@@ -9741,12 +9744,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B362" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>17</v>
@@ -9764,12 +9767,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B363" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>17</v>
@@ -9787,12 +9790,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="B364" s="2" t="s">
         <v>325</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>326</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>17</v>
@@ -9810,12 +9813,12 @@
         <v>79</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B365" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>14</v>
@@ -9833,12 +9836,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B366" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="B366" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>14</v>
@@ -9856,12 +9859,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B367" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="B367" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>32</v>
@@ -9879,12 +9882,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B368" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>32</v>
@@ -9902,12 +9905,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B369" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="B369" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>32</v>
@@ -9925,12 +9928,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B370" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="B370" s="2" t="s">
-        <v>328</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>32</v>
@@ -9948,12 +9951,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B371" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="B371" s="2" t="s">
-        <v>330</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>14</v>
@@ -9971,12 +9974,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B372" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>6</v>
@@ -9994,12 +9997,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B373" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="B373" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>6</v>
@@ -10017,12 +10020,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B374" s="2" t="s">
         <v>331</v>
-      </c>
-      <c r="B374" s="2" t="s">
-        <v>332</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>6</v>
@@ -10040,12 +10043,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B375" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B375" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>32</v>
@@ -10063,12 +10066,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B376" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B376" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>14</v>
@@ -10086,12 +10089,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B377" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B377" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>14</v>
@@ -10109,12 +10112,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="B378" s="2" t="s">
         <v>333</v>
-      </c>
-      <c r="B378" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>32</v>

--- a/data/course_data/Units/Unit_Times.xlsx
+++ b/data/course_data/Units/Unit_Times.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="350">
   <si>
     <t>Day</t>
   </si>
@@ -1033,13 +1033,49 @@
   </si>
   <si>
     <t>Module_Type</t>
+  </si>
+  <si>
+    <t>2 to 6</t>
+  </si>
+  <si>
+    <t>8 to 13</t>
+  </si>
+  <si>
+    <t>14 to 19</t>
+  </si>
+  <si>
+    <t>21 to 23</t>
+  </si>
+  <si>
+    <t>24-26</t>
+  </si>
+  <si>
+    <t>9 to 13</t>
+  </si>
+  <si>
+    <t>15 to 20</t>
+  </si>
+  <si>
+    <t>26 to 31</t>
+  </si>
+  <si>
+    <t>33 to 35</t>
+  </si>
+  <si>
+    <t>39 to 41</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>CMIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1058,6 +1094,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1102,7 +1145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1119,6 +1162,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1422,10 +1471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H378"/>
+  <dimension ref="A1:K378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1440,7 +1489,7 @@
     <col min="8" max="8" width="11.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="23.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="23.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>336</v>
       </c>
@@ -1462,8 +1511,14 @@
       <c r="G1" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1485,8 +1540,14 @@
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J2" t="s">
+        <v>338</v>
+      </c>
+      <c r="K2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1508,8 +1569,14 @@
       <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J3" t="s">
+        <v>339</v>
+      </c>
+      <c r="K3" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1531,8 +1598,14 @@
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J4" t="s">
+        <v>340</v>
+      </c>
+      <c r="K4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -1554,8 +1627,14 @@
       <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J5" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -1577,8 +1656,14 @@
       <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" t="s">
+        <v>342</v>
+      </c>
+      <c r="K6" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1601,7 +1686,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
@@ -1624,7 +1709,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -1647,7 +1732,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
@@ -1670,7 +1755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
@@ -1693,7 +1778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -1716,7 +1801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1739,7 +1824,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>31</v>
       </c>
@@ -1762,7 +1847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>35</v>
       </c>
@@ -1785,7 +1870,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>35</v>
       </c>
@@ -10137,5 +10222,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/course_data/Units/Unit_Times.xlsx
+++ b/data/course_data/Units/Unit_Times.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="page 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2672" uniqueCount="420">
   <si>
     <t>Day</t>
   </si>
@@ -1035,47 +1035,257 @@
     <t>Module_Type</t>
   </si>
   <si>
-    <t>2 to 6</t>
-  </si>
-  <si>
-    <t>8 to 13</t>
-  </si>
-  <si>
-    <t>14 to 19</t>
-  </si>
-  <si>
-    <t>21 to 23</t>
-  </si>
-  <si>
-    <t>24-26</t>
-  </si>
-  <si>
-    <t>9 to 13</t>
-  </si>
-  <si>
-    <t>15 to 20</t>
-  </si>
-  <si>
-    <t>26 to 31</t>
-  </si>
-  <si>
-    <t>33 to 35</t>
-  </si>
-  <si>
-    <t>39 to 41</t>
-  </si>
-  <si>
     <t>Actual</t>
   </si>
   <si>
     <t>CMIS</t>
+  </si>
+  <si>
+    <t>Seperated_Weeks</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6,8,9,10,11,12,13</t>
+  </si>
+  <si>
+    <t>15,17,19,22,24</t>
+  </si>
+  <si>
+    <t>15,17,19,22,24,26</t>
+  </si>
+  <si>
+    <t>3,5,8,10,12</t>
+  </si>
+  <si>
+    <t>16,18,23,25</t>
+  </si>
+  <si>
+    <t>4,6,9,11,13</t>
+  </si>
+  <si>
+    <t>15,16,17,18,19,21,22,23</t>
+  </si>
+  <si>
+    <t>21,23</t>
+  </si>
+  <si>
+    <t>5,8,9,10,11</t>
+  </si>
+  <si>
+    <t>14,15,17,19,21,22</t>
+  </si>
+  <si>
+    <t>15,17,19,21,23</t>
+  </si>
+  <si>
+    <t>6,12</t>
+  </si>
+  <si>
+    <t>16,23</t>
+  </si>
+  <si>
+    <t>15,16,17,18,19,21,22,23,24,25,26</t>
+  </si>
+  <si>
+    <t>15,16,17,18,19,21,22,23,24,25,27</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6,8,9,10,11,12</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6,8,9,10,11,13</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18,19</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18,19,21,22,23,25</t>
+  </si>
+  <si>
+    <t>21,22,23</t>
+  </si>
+  <si>
+    <t>3,4,5,6</t>
+  </si>
+  <si>
+    <t>14,23</t>
+  </si>
+  <si>
+    <t>25,26</t>
+  </si>
+  <si>
+    <t>2,3,4,5,8,10,11</t>
+  </si>
+  <si>
+    <t>2,3,4,5,8,9,10,11,12</t>
+  </si>
+  <si>
+    <t>9,13</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18,21,22,23</t>
+  </si>
+  <si>
+    <t>22,23</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6,8,9,10,11</t>
+  </si>
+  <si>
+    <t>4,7,11,12,13</t>
+  </si>
+  <si>
+    <t>14,18</t>
+  </si>
+  <si>
+    <t>15,16,17,19,21,22,23,25</t>
+  </si>
+  <si>
+    <t>3,4,5,6,8,9,10,11,12,13</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18,19,21,22,23</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18,19,21,22,24</t>
+  </si>
+  <si>
+    <t>11,12,13</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18,20</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6,8,9,10</t>
+  </si>
+  <si>
+    <t>21,22,23,25,26</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>14,25</t>
+  </si>
+  <si>
+    <t>15,16,17,18,19,21,22,23,26</t>
+  </si>
+  <si>
+    <t>9,10,11</t>
+  </si>
+  <si>
+    <t>13,14</t>
+  </si>
+  <si>
+    <t>12,13</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
+    <t>6,8,9,10,11,12,13</t>
+  </si>
+  <si>
+    <t>3,8</t>
+  </si>
+  <si>
+    <t>10,12</t>
+  </si>
+  <si>
+    <t>21,22,23,25,27</t>
+  </si>
+  <si>
+    <t>15,16,17,18,19</t>
+  </si>
+  <si>
+    <t>2,5,9,11,12</t>
+  </si>
+  <si>
+    <t>3,4,6,8,10,13</t>
+  </si>
+  <si>
+    <t>2,3,4,5</t>
+  </si>
+  <si>
+    <t>3,5,9,11</t>
+  </si>
+  <si>
+    <t>14,15,16,17</t>
+  </si>
+  <si>
+    <t>15,17,19,22</t>
+  </si>
+  <si>
+    <t>8,9,10,11,12,13</t>
+  </si>
+  <si>
+    <t>15,16,17,19</t>
+  </si>
+  <si>
+    <t>15,16,17,20</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18,19,21,22,23,24</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18</t>
+  </si>
+  <si>
+    <t>19,21,22,23,25,26</t>
+  </si>
+  <si>
+    <t>2,3,4,5,8,9,10,11</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>15,16,17,19,21,22,23</t>
+  </si>
+  <si>
+    <t>16,17,18,19,21,22,23</t>
+  </si>
+  <si>
+    <t>4,5,6,8,9,10,11,12,13</t>
+  </si>
+  <si>
+    <t>15,16,17,18,21,22,23</t>
+  </si>
+  <si>
+    <t>5,6,8,9,10,11,12,13</t>
+  </si>
+  <si>
+    <t>17,18,19,21,22,23,26</t>
+  </si>
+  <si>
+    <t>3,5,9,11,13</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18,19,21,22,23,25,26</t>
+  </si>
+  <si>
+    <t>3,4,5,8,9,10,11,12,13</t>
+  </si>
+  <si>
+    <t>14,15,16,17,18,19,21,22,23,24,26</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>15,16,17,18,22,23</t>
+  </si>
+  <si>
+    <t>21,22,23,26</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1095,13 +1305,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1111,7 +1314,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1141,6 +1344,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1160,14 +1374,16 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1473,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1486,7 +1702,8 @@
     <col min="5" max="5" width="9.26953125" customWidth="1"/>
     <col min="6" max="6" width="18.7265625" customWidth="1"/>
     <col min="7" max="7" width="17.7265625" customWidth="1"/>
-    <col min="8" max="8" width="11.7265625" customWidth="1"/>
+    <col min="8" max="8" width="32.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1511,11 +1728,14 @@
       <c r="G1" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>348</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>349</v>
+      <c r="H1" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1540,11 +1760,14 @@
       <c r="G2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
-        <v>338</v>
-      </c>
-      <c r="K2" t="s">
-        <v>343</v>
+      <c r="H2" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="J2" s="5">
+        <v>9</v>
+      </c>
+      <c r="K2" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1569,11 +1792,15 @@
       <c r="G3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
-        <v>339</v>
-      </c>
-      <c r="K3" t="s">
-        <v>344</v>
+      <c r="H3" t="str">
+        <f>IF(F3 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F3 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", ""))</f>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1598,11 +1825,15 @@
       <c r="G4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J4" t="s">
-        <v>340</v>
-      </c>
-      <c r="K4" t="s">
-        <v>345</v>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H67" si="0">IF(F4 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F4 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", ""))</f>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1627,11 +1858,15 @@
       <c r="G5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>346</v>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1656,11 +1891,15 @@
       <c r="G6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J6" t="s">
-        <v>342</v>
-      </c>
-      <c r="K6" t="s">
-        <v>347</v>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1685,6 +1924,16 @@
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+      <c r="K7">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -1708,6 +1957,16 @@
       <c r="G8" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="K8">
+        <v>9</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -1731,6 +1990,16 @@
       <c r="G9" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+      <c r="J9">
+        <v>17</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
@@ -1754,6 +2023,16 @@
       <c r="G10" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+      <c r="J10">
+        <v>18</v>
+      </c>
+      <c r="K10">
+        <v>11</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
@@ -1777,6 +2056,16 @@
       <c r="G11" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+      <c r="J11">
+        <v>19</v>
+      </c>
+      <c r="K11">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
@@ -1788,7 +2077,7 @@
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="6">
         <v>0.41666666666666669</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1799,6 +2088,16 @@
       </c>
       <c r="G12" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+      <c r="K12">
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -1823,6 +2122,16 @@
       <c r="G13" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H13" t="str">
+        <f>IF(F13 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F13 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F13 = "26,28,30,33,35,40", "14,16,18,21,23,25", "")))</f>
+        <v>14,16,18,21,23,25</v>
+      </c>
+      <c r="J13">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -1846,6 +2155,16 @@
       <c r="G14" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H14" t="str">
+        <f t="shared" ref="H14:H77" si="1">IF(F14 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F14 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F14 = "26,28,30,33,35,40", "14,16,18,21,23,25", "")))</f>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+      <c r="J14">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <v>15</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -1869,6 +2188,16 @@
       <c r="G15" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H15" t="str">
+        <f>IF(F15 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F15 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F15 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F15 = "9,11,13,16,18,20", "2,4,6,9,11,13", ""))))</f>
+        <v>2,4,6,9,11,13</v>
+      </c>
+      <c r="J15">
+        <v>28</v>
+      </c>
+      <c r="K15">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
@@ -1892,8 +2221,18 @@
       <c r="G16" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H16" t="str">
+        <f t="shared" ref="H16:H79" si="2">IF(F16 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F16 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F16 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F16 = "9,11,13,16,18,20", "2,4,6,9,11,13", ""))))</f>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+      <c r="J16">
+        <v>29</v>
+      </c>
+      <c r="K16">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1915,8 +2254,17 @@
       <c r="G17" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H17">
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>30</v>
+      </c>
+      <c r="K17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1938,8 +2286,17 @@
       <c r="G18" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H18">
+        <v>12</v>
+      </c>
+      <c r="J18">
+        <v>31</v>
+      </c>
+      <c r="K18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
@@ -1961,8 +2318,18 @@
       <c r="G19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H19" t="str">
+        <f t="shared" ref="H18:H81" si="3">IF(F19 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F19 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F19 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F19 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F19 = 19, "12", "")))))</f>
+        <v>14,16,18,21,23,25</v>
+      </c>
+      <c r="J19">
+        <v>33</v>
+      </c>
+      <c r="K19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>35</v>
       </c>
@@ -1984,8 +2351,18 @@
       <c r="G20" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+      <c r="J20">
+        <v>34</v>
+      </c>
+      <c r="K20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>35</v>
       </c>
@@ -2007,8 +2384,17 @@
       <c r="G21" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H21">
+        <v>27</v>
+      </c>
+      <c r="J21">
+        <v>35</v>
+      </c>
+      <c r="K21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>35</v>
       </c>
@@ -2030,8 +2416,17 @@
       <c r="G22" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H22">
+        <v>27</v>
+      </c>
+      <c r="J22">
+        <v>39</v>
+      </c>
+      <c r="K22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -2053,8 +2448,18 @@
       <c r="G23" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H23" t="str">
+        <f>IF(F23 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F23 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F23 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F23 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F23 = "9,11,13,15,17,19", "2,4,6,8,10,12", "")))))</f>
+        <v>2,4,6,8,10,12</v>
+      </c>
+      <c r="J23">
+        <v>40</v>
+      </c>
+      <c r="K23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>41</v>
       </c>
@@ -2076,8 +2481,18 @@
       <c r="G24" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H24" t="str">
+        <f t="shared" ref="H24:H87" si="4">IF(F24 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F24 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F24 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F24 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F24 = "9,11,13,15,17,19", "2,4,6,8,10,12", "")))))</f>
+        <v>2,4,6,8,10,12</v>
+      </c>
+      <c r="J24">
+        <v>41</v>
+      </c>
+      <c r="K24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
@@ -2099,8 +2514,12 @@
       <c r="G25" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H25" t="str">
+        <f>IF(F25 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F25 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F25 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F25 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F25 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F25 = "27,29,31,33,35,40", "15,17,19,21,23,25", ""))))))</f>
+        <v>15,17,19,21,23,25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>41</v>
       </c>
@@ -2122,8 +2541,12 @@
       <c r="G26" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H26" t="str">
+        <f t="shared" ref="H26:H89" si="5">IF(F26 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F26 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F26 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F26 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F26 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F26 = "27,29,31,33,35,40", "15,17,19,21,23,25", ""))))))</f>
+        <v>15,17,19,21,23,25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>47</v>
       </c>
@@ -2145,8 +2568,12 @@
       <c r="G27" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H27" t="str">
+        <f>IF(F27 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F27 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F27 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F27 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F27 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F27 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F27 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
+        <v>2,6,9,11,13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>47</v>
       </c>
@@ -2168,8 +2595,11 @@
       <c r="G28" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H28">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>47</v>
       </c>
@@ -2191,8 +2621,11 @@
       <c r="G29" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H29" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
@@ -2214,8 +2647,11 @@
       <c r="G30" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>53</v>
       </c>
@@ -2237,8 +2673,12 @@
       <c r="G31" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H31" t="str">
+        <f t="shared" ref="H28:H91" si="6">IF(F31 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F31 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F31 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F31 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F31 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F31 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F31 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>55</v>
       </c>
@@ -2259,6 +2699,10 @@
       </c>
       <c r="G32" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="6"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
@@ -2283,6 +2727,10 @@
       <c r="G33" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H33" t="str">
+        <f t="shared" si="6"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
@@ -2306,6 +2754,10 @@
       <c r="G34" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="H34" t="str">
+        <f t="shared" si="6"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
     </row>
     <row r="35" spans="1:8" ht="20.65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
@@ -2329,6 +2781,10 @@
       <c r="G35" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H35" t="str">
+        <f t="shared" si="6"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
     </row>
     <row r="36" spans="1:8" s="5" customFormat="1" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
@@ -2352,7 +2808,10 @@
       <c r="G36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H36" s="6"/>
+      <c r="H36" t="str">
+        <f t="shared" si="6"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
@@ -2376,6 +2835,10 @@
       <c r="G37" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H37" t="str">
+        <f t="shared" si="6"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
@@ -2399,6 +2862,10 @@
       <c r="G38" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H38" t="str">
+        <f t="shared" si="6"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
@@ -2422,6 +2889,10 @@
       <c r="G39" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="H39" t="str">
+        <f t="shared" si="6"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
@@ -2445,6 +2916,10 @@
       <c r="G40" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H40" t="str">
+        <f t="shared" si="6"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
@@ -2468,6 +2943,10 @@
       <c r="G41" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H41" t="str">
+        <f t="shared" si="6"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
@@ -2491,6 +2970,10 @@
       <c r="G42" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="H42" t="str">
+        <f t="shared" si="6"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
@@ -2514,6 +2997,9 @@
       <c r="G43" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H43" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
@@ -2537,6 +3023,9 @@
       <c r="G44" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H44">
+        <v>15</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
@@ -2560,6 +3049,9 @@
       <c r="G45" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H45" s="9" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
@@ -2583,6 +3075,9 @@
       <c r="G46" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
@@ -2606,6 +3101,9 @@
       <c r="G47" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="H47" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
@@ -2629,8 +3127,11 @@
       <c r="G48" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H48" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>75</v>
       </c>
@@ -2652,8 +3153,12 @@
       <c r="G49" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49" t="str">
+        <f t="shared" si="6"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>75</v>
       </c>
@@ -2675,8 +3180,12 @@
       <c r="G50" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50" t="str">
+        <f t="shared" si="6"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>77</v>
       </c>
@@ -2698,8 +3207,12 @@
       <c r="G51" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H51" t="str">
+        <f t="shared" si="6"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>77</v>
       </c>
@@ -2721,8 +3234,12 @@
       <c r="G52" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H52" t="str">
+        <f t="shared" si="6"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>81</v>
       </c>
@@ -2744,8 +3261,11 @@
       <c r="G53" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H53">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>81</v>
       </c>
@@ -2767,8 +3287,11 @@
       <c r="G54" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H54" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>81</v>
       </c>
@@ -2790,8 +3313,11 @@
       <c r="G55" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H55">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>81</v>
       </c>
@@ -2813,8 +3339,11 @@
       <c r="G56" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H56">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>86</v>
       </c>
@@ -2836,8 +3365,12 @@
       <c r="G57" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H57" t="str">
+        <f t="shared" si="6"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>86</v>
       </c>
@@ -2859,8 +3392,12 @@
       <c r="G58" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H58" t="str">
+        <f t="shared" si="6"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>86</v>
       </c>
@@ -2882,8 +3419,11 @@
       <c r="G59" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H59" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>86</v>
       </c>
@@ -2905,8 +3445,11 @@
       <c r="G60" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H60">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>86</v>
       </c>
@@ -2928,8 +3471,11 @@
       <c r="G61" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H61" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>86</v>
       </c>
@@ -2951,8 +3497,11 @@
       <c r="G62" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H62">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>86</v>
       </c>
@@ -2974,8 +3523,11 @@
       <c r="G63" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H63">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>92</v>
       </c>
@@ -2997,8 +3549,11 @@
       <c r="G64" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H64" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>92</v>
       </c>
@@ -3020,8 +3575,11 @@
       <c r="G65" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H65" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>92</v>
       </c>
@@ -3043,8 +3601,11 @@
       <c r="G66" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H66" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>98</v>
       </c>
@@ -3066,8 +3627,11 @@
       <c r="G67" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H67" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>98</v>
       </c>
@@ -3089,8 +3653,11 @@
       <c r="G68" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H68" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>102</v>
       </c>
@@ -3112,8 +3679,12 @@
       <c r="G69" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H69" t="str">
+        <f t="shared" si="6"/>
+        <v>2,4,6,9,11,13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>102</v>
       </c>
@@ -3135,8 +3706,12 @@
       <c r="G70" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H70" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>102</v>
       </c>
@@ -3158,8 +3733,11 @@
       <c r="G71" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>102</v>
       </c>
@@ -3181,8 +3759,12 @@
       <c r="G72" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H72" t="str">
+        <f t="shared" si="6"/>
+        <v>14,16,18,21,23,25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>102</v>
       </c>
@@ -3204,8 +3786,11 @@
       <c r="G73" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H73" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>105</v>
       </c>
@@ -3227,8 +3812,12 @@
       <c r="G74" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H74" t="str">
+        <f t="shared" si="6"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>107</v>
       </c>
@@ -3250,8 +3839,12 @@
       <c r="G75" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H75" t="str">
+        <f t="shared" si="6"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>107</v>
       </c>
@@ -3273,8 +3866,12 @@
       <c r="G76" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H76" t="str">
+        <f t="shared" si="6"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>107</v>
       </c>
@@ -3296,8 +3893,11 @@
       <c r="G77" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H77">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>107</v>
       </c>
@@ -3319,8 +3919,11 @@
       <c r="G78" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>107</v>
       </c>
@@ -3342,8 +3945,11 @@
       <c r="G79" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H79">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>107</v>
       </c>
@@ -3365,8 +3971,11 @@
       <c r="G80" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>107</v>
       </c>
@@ -3388,8 +3997,11 @@
       <c r="G81" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H81" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>107</v>
       </c>
@@ -3411,8 +4023,11 @@
       <c r="G82" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H82" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>107</v>
       </c>
@@ -3434,8 +4049,11 @@
       <c r="G83" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H83">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>107</v>
       </c>
@@ -3457,8 +4075,11 @@
       <c r="G84" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H84">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>110</v>
       </c>
@@ -3480,8 +4101,12 @@
       <c r="G85" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H85" t="str">
+        <f t="shared" si="6"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>110</v>
       </c>
@@ -3503,8 +4128,12 @@
       <c r="G86" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H86" t="str">
+        <f t="shared" si="6"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>112</v>
       </c>
@@ -3526,8 +4155,12 @@
       <c r="G87" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H87" t="str">
+        <f t="shared" si="6"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>112</v>
       </c>
@@ -3549,8 +4182,12 @@
       <c r="G88" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H88" t="str">
+        <f t="shared" si="6"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>112</v>
       </c>
@@ -3572,8 +4209,12 @@
       <c r="G89" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H89" t="str">
+        <f t="shared" si="6"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>112</v>
       </c>
@@ -3595,8 +4236,12 @@
       <c r="G90" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H90" t="str">
+        <f t="shared" si="6"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>114</v>
       </c>
@@ -3618,8 +4263,11 @@
       <c r="G91" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H91" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>114</v>
       </c>
@@ -3641,8 +4289,11 @@
       <c r="G92" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H92" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>114</v>
       </c>
@@ -3664,8 +4315,11 @@
       <c r="G93" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H93">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>114</v>
       </c>
@@ -3687,8 +4341,11 @@
       <c r="G94" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H94">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>114</v>
       </c>
@@ -3710,8 +4367,11 @@
       <c r="G95" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H95" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>114</v>
       </c>
@@ -3733,8 +4393,11 @@
       <c r="G96" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H96" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>114</v>
       </c>
@@ -3756,8 +4419,11 @@
       <c r="G97" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H97" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>114</v>
       </c>
@@ -3779,8 +4445,11 @@
       <c r="G98" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H98">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>114</v>
       </c>
@@ -3802,8 +4471,11 @@
       <c r="G99" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H99">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>120</v>
       </c>
@@ -3825,8 +4497,12 @@
       <c r="G100" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H100" t="str">
+        <f t="shared" ref="H92:H155" si="7">IF(F100 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F100 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F100 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F100 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F100 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F100 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F100 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>120</v>
       </c>
@@ -3848,8 +4524,11 @@
       <c r="G101" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H101">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>120</v>
       </c>
@@ -3871,8 +4550,11 @@
       <c r="G102" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H102" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>120</v>
       </c>
@@ -3894,8 +4576,11 @@
       <c r="G103" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H103">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>120</v>
       </c>
@@ -3917,8 +4602,11 @@
       <c r="G104" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H104">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>122</v>
       </c>
@@ -3940,8 +4628,11 @@
       <c r="G105" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>122</v>
       </c>
@@ -3963,8 +4654,11 @@
       <c r="G106" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H106" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>122</v>
       </c>
@@ -3986,8 +4680,11 @@
       <c r="G107" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H107" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>122</v>
       </c>
@@ -4009,8 +4706,11 @@
       <c r="G108" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H108" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>122</v>
       </c>
@@ -4032,8 +4732,11 @@
       <c r="G109" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H109" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>131</v>
       </c>
@@ -4055,8 +4758,11 @@
       <c r="G110" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H110" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>131</v>
       </c>
@@ -4078,8 +4784,11 @@
       <c r="G111" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H111" s="9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>131</v>
       </c>
@@ -4101,8 +4810,11 @@
       <c r="G112" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H112" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>131</v>
       </c>
@@ -4124,8 +4836,11 @@
       <c r="G113" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H113" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>131</v>
       </c>
@@ -4147,8 +4862,11 @@
       <c r="G114" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H114" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>131</v>
       </c>
@@ -4170,8 +4888,11 @@
       <c r="G115" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H115">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>138</v>
       </c>
@@ -4193,8 +4914,11 @@
       <c r="G116" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H116" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>138</v>
       </c>
@@ -4216,8 +4940,11 @@
       <c r="G117" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H117" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>138</v>
       </c>
@@ -4239,8 +4966,11 @@
       <c r="G118" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>138</v>
       </c>
@@ -4262,8 +4992,11 @@
       <c r="G119" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H119">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>138</v>
       </c>
@@ -4285,8 +5018,11 @@
       <c r="G120" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H120">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>138</v>
       </c>
@@ -4308,8 +5044,11 @@
       <c r="G121" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H121">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>143</v>
       </c>
@@ -4331,8 +5070,12 @@
       <c r="G122" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H122" t="str">
+        <f t="shared" si="7"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>145</v>
       </c>
@@ -4354,8 +5097,12 @@
       <c r="G123" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H123" t="str">
+        <f t="shared" si="7"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>145</v>
       </c>
@@ -4377,8 +5124,12 @@
       <c r="G124" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H124" t="str">
+        <f t="shared" si="7"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>145</v>
       </c>
@@ -4400,8 +5151,11 @@
       <c r="G125" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>145</v>
       </c>
@@ -4423,8 +5177,11 @@
       <c r="G126" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>147</v>
       </c>
@@ -4446,8 +5203,12 @@
       <c r="G127" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H127" t="str">
+        <f t="shared" si="7"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>147</v>
       </c>
@@ -4469,8 +5230,12 @@
       <c r="G128" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H128" t="str">
+        <f t="shared" si="7"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>149</v>
       </c>
@@ -4492,8 +5257,12 @@
       <c r="G129" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H129" t="str">
+        <f t="shared" si="7"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>149</v>
       </c>
@@ -4515,8 +5284,11 @@
       <c r="G130" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H130" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>149</v>
       </c>
@@ -4538,8 +5310,11 @@
       <c r="G131" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H131" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>153</v>
       </c>
@@ -4561,8 +5336,12 @@
       <c r="G132" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H132" t="str">
+        <f t="shared" si="7"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>153</v>
       </c>
@@ -4584,8 +5363,12 @@
       <c r="G133" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H133" t="str">
+        <f t="shared" si="7"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>155</v>
       </c>
@@ -4607,8 +5390,12 @@
       <c r="G134" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H134" t="str">
+        <f t="shared" si="7"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>155</v>
       </c>
@@ -4630,8 +5417,12 @@
       <c r="G135" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H135" t="str">
+        <f t="shared" si="7"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>155</v>
       </c>
@@ -4653,8 +5444,12 @@
       <c r="G136" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H136" t="str">
+        <f t="shared" si="7"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>157</v>
       </c>
@@ -4676,8 +5471,12 @@
       <c r="G137" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H137" t="str">
+        <f t="shared" si="7"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>159</v>
       </c>
@@ -4699,8 +5498,12 @@
       <c r="G138" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H138" t="str">
+        <f t="shared" si="7"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>161</v>
       </c>
@@ -4722,8 +5525,12 @@
       <c r="G139" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H139" t="str">
+        <f t="shared" si="7"/>
+        <v>2,4,6,9,11,13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>161</v>
       </c>
@@ -4745,8 +5552,11 @@
       <c r="G140" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H140" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>161</v>
       </c>
@@ -4768,8 +5578,12 @@
       <c r="G141" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H141" t="str">
+        <f t="shared" si="7"/>
+        <v>14,16,18,21,23,25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>161</v>
       </c>
@@ -4791,8 +5605,11 @@
       <c r="G142" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H142" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>161</v>
       </c>
@@ -4814,8 +5631,11 @@
       <c r="G143" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H143">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>161</v>
       </c>
@@ -4837,8 +5657,11 @@
       <c r="G144" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H144">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>163</v>
       </c>
@@ -4860,8 +5683,12 @@
       <c r="G145" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H145" t="str">
+        <f t="shared" si="7"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>163</v>
       </c>
@@ -4883,8 +5710,11 @@
       <c r="G146" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H146" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>163</v>
       </c>
@@ -4906,8 +5736,11 @@
       <c r="G147" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H147" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>163</v>
       </c>
@@ -4929,8 +5762,11 @@
       <c r="G148" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H148" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>163</v>
       </c>
@@ -4952,8 +5788,11 @@
       <c r="G149" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H149" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>167</v>
       </c>
@@ -4975,8 +5814,11 @@
       <c r="G150" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H150" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>167</v>
       </c>
@@ -4998,8 +5840,11 @@
       <c r="G151" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H151" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>167</v>
       </c>
@@ -5021,8 +5866,11 @@
       <c r="G152" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H152" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>167</v>
       </c>
@@ -5044,8 +5892,11 @@
       <c r="G153" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H153" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>167</v>
       </c>
@@ -5067,8 +5918,11 @@
       <c r="G154" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H154" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>167</v>
       </c>
@@ -5090,8 +5944,11 @@
       <c r="G155" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H155" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>172</v>
       </c>
@@ -5113,8 +5970,12 @@
       <c r="G156" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H156" t="str">
+        <f t="shared" ref="H156:H219" si="8">IF(F156 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F156 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F156 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F156 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F156 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F156 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F156 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>172</v>
       </c>
@@ -5136,8 +5997,12 @@
       <c r="G157" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H157" t="str">
+        <f t="shared" si="8"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>174</v>
       </c>
@@ -5159,8 +6024,11 @@
       <c r="G158" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H158" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>177</v>
       </c>
@@ -5182,8 +6050,12 @@
       <c r="G159" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H159" t="str">
+        <f t="shared" si="8"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>179</v>
       </c>
@@ -5205,8 +6077,11 @@
       <c r="G160" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H160" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>179</v>
       </c>
@@ -5228,8 +6103,12 @@
       <c r="G161" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H161" t="str">
+        <f t="shared" si="8"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>179</v>
       </c>
@@ -5251,8 +6130,11 @@
       <c r="G162" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H162" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>183</v>
       </c>
@@ -5274,8 +6156,12 @@
       <c r="G163" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H163" t="str">
+        <f>IF(F163 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F163 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F163 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F163 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F163 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F163 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F163 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>183</v>
       </c>
@@ -5297,8 +6183,11 @@
       <c r="G164" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H164" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>183</v>
       </c>
@@ -5320,8 +6209,11 @@
       <c r="G165" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H165" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>183</v>
       </c>
@@ -5343,8 +6235,11 @@
       <c r="G166" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H166" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>183</v>
       </c>
@@ -5366,8 +6261,11 @@
       <c r="G167" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H167" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>183</v>
       </c>
@@ -5389,8 +6287,11 @@
       <c r="G168" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H168">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>183</v>
       </c>
@@ -5412,8 +6313,11 @@
       <c r="G169" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H169">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>188</v>
       </c>
@@ -5435,8 +6339,11 @@
       <c r="G170" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H170" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>188</v>
       </c>
@@ -5458,8 +6365,11 @@
       <c r="G171" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H171" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>188</v>
       </c>
@@ -5481,8 +6391,11 @@
       <c r="G172" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H172" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>188</v>
       </c>
@@ -5504,8 +6417,11 @@
       <c r="G173" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H173" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>191</v>
       </c>
@@ -5527,8 +6443,12 @@
       <c r="G174" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H174" t="str">
+        <f t="shared" si="8"/>
+        <v>2,4,6,9,11,13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>191</v>
       </c>
@@ -5550,8 +6470,11 @@
       <c r="G175" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H175" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>193</v>
       </c>
@@ -5573,8 +6496,11 @@
       <c r="G176" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H176">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>193</v>
       </c>
@@ -5596,8 +6522,11 @@
       <c r="G177" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H177" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>193</v>
       </c>
@@ -5619,8 +6548,11 @@
       <c r="G178" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H178" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>193</v>
       </c>
@@ -5642,8 +6574,12 @@
       <c r="G179" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H179" t="str">
+        <f t="shared" si="8"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>197</v>
       </c>
@@ -5665,8 +6601,12 @@
       <c r="G180" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H180" t="str">
+        <f t="shared" si="8"/>
+        <v>2,4,6,9,11,13</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>197</v>
       </c>
@@ -5688,8 +6628,11 @@
       <c r="G181" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>197</v>
       </c>
@@ -5711,8 +6654,11 @@
       <c r="G182" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H182" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>197</v>
       </c>
@@ -5734,8 +6680,11 @@
       <c r="G183" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H183">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>197</v>
       </c>
@@ -5757,8 +6706,11 @@
       <c r="G184" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H184">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>197</v>
       </c>
@@ -5780,8 +6732,11 @@
       <c r="G185" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H185" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>197</v>
       </c>
@@ -5803,8 +6758,12 @@
       <c r="G186" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H186" t="str">
+        <f t="shared" si="8"/>
+        <v>14,16,18,21,23,25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>197</v>
       </c>
@@ -5826,8 +6785,11 @@
       <c r="G187" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H187" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>201</v>
       </c>
@@ -5849,8 +6811,12 @@
       <c r="G188" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H188" t="str">
+        <f t="shared" si="8"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>201</v>
       </c>
@@ -5872,8 +6838,12 @@
       <c r="G189" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H189" t="str">
+        <f t="shared" si="8"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>201</v>
       </c>
@@ -5895,8 +6865,11 @@
       <c r="G190" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H190">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>203</v>
       </c>
@@ -5918,8 +6891,11 @@
       <c r="G191" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H191" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>205</v>
       </c>
@@ -5941,8 +6917,12 @@
       <c r="G192" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H192" t="str">
+        <f t="shared" si="8"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>205</v>
       </c>
@@ -5964,8 +6944,12 @@
       <c r="G193" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H193" t="str">
+        <f t="shared" si="8"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>207</v>
       </c>
@@ -5987,8 +6971,11 @@
       <c r="G194" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H194" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>207</v>
       </c>
@@ -6010,8 +6997,11 @@
       <c r="G195" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H195" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>207</v>
       </c>
@@ -6033,8 +7023,11 @@
       <c r="G196" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H196" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>207</v>
       </c>
@@ -6056,8 +7049,11 @@
       <c r="G197" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H197">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>207</v>
       </c>
@@ -6079,8 +7075,11 @@
       <c r="G198" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H198">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>210</v>
       </c>
@@ -6102,8 +7101,11 @@
       <c r="G199" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H199">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>210</v>
       </c>
@@ -6125,8 +7127,11 @@
       <c r="G200" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H200" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>210</v>
       </c>
@@ -6148,8 +7153,11 @@
       <c r="G201" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H201" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>210</v>
       </c>
@@ -6171,8 +7179,11 @@
       <c r="G202" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H202" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>210</v>
       </c>
@@ -6194,8 +7205,11 @@
       <c r="G203" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H203" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>210</v>
       </c>
@@ -6217,8 +7231,11 @@
       <c r="G204" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H204">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>210</v>
       </c>
@@ -6240,8 +7257,11 @@
       <c r="G205" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H205">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>213</v>
       </c>
@@ -6263,8 +7283,12 @@
       <c r="G206" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H206" t="str">
+        <f t="shared" si="8"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>215</v>
       </c>
@@ -6286,8 +7310,11 @@
       <c r="G207" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H207" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>215</v>
       </c>
@@ -6309,8 +7336,11 @@
       <c r="G208" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H208" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>215</v>
       </c>
@@ -6332,8 +7362,11 @@
       <c r="G209" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H209">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>215</v>
       </c>
@@ -6355,8 +7388,11 @@
       <c r="G210" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H210">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>215</v>
       </c>
@@ -6378,8 +7414,11 @@
       <c r="G211" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H211">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>215</v>
       </c>
@@ -6401,8 +7440,11 @@
       <c r="G212" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H212">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>219</v>
       </c>
@@ -6424,8 +7466,12 @@
       <c r="G213" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H213" t="str">
+        <f t="shared" si="8"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>219</v>
       </c>
@@ -6447,8 +7493,12 @@
       <c r="G214" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H214" t="str">
+        <f t="shared" si="8"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>221</v>
       </c>
@@ -6470,8 +7520,12 @@
       <c r="G215" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H215" t="str">
+        <f t="shared" si="8"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>221</v>
       </c>
@@ -6493,8 +7547,12 @@
       <c r="G216" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H216" t="str">
+        <f t="shared" si="8"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>223</v>
       </c>
@@ -6516,8 +7574,11 @@
       <c r="G217" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H217" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>223</v>
       </c>
@@ -6539,8 +7600,11 @@
       <c r="G218" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H218" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>223</v>
       </c>
@@ -6562,8 +7626,11 @@
       <c r="G219" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H219">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>223</v>
       </c>
@@ -6585,8 +7652,11 @@
       <c r="G220" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H220" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>223</v>
       </c>
@@ -6608,8 +7678,11 @@
       <c r="G221" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H221" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>223</v>
       </c>
@@ -6631,8 +7704,11 @@
       <c r="G222" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H222" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>223</v>
       </c>
@@ -6654,8 +7730,11 @@
       <c r="G223" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H223" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>223</v>
       </c>
@@ -6677,8 +7756,11 @@
       <c r="G224" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H224">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>229</v>
       </c>
@@ -6700,8 +7782,11 @@
       <c r="G225" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H225" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>229</v>
       </c>
@@ -6723,8 +7808,11 @@
       <c r="G226" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H226" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>229</v>
       </c>
@@ -6746,8 +7834,11 @@
       <c r="G227" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H227" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>229</v>
       </c>
@@ -6769,8 +7860,11 @@
       <c r="G228" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H228" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>233</v>
       </c>
@@ -6792,8 +7886,12 @@
       <c r="G229" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H229" t="str">
+        <f t="shared" ref="H220:H283" si="9">IF(F229 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F229 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F229 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F229 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F229 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F229 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F229 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>233</v>
       </c>
@@ -6815,8 +7913,12 @@
       <c r="G230" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H230" t="str">
+        <f t="shared" si="9"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>233</v>
       </c>
@@ -6838,8 +7940,12 @@
       <c r="G231" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H231" t="str">
+        <f t="shared" si="9"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>233</v>
       </c>
@@ -6861,8 +7967,12 @@
       <c r="G232" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H232" t="str">
+        <f t="shared" si="9"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>233</v>
       </c>
@@ -6884,8 +7994,12 @@
       <c r="G233" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H233" t="str">
+        <f t="shared" si="9"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>233</v>
       </c>
@@ -6907,8 +8021,12 @@
       <c r="G234" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H234" t="str">
+        <f t="shared" si="9"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>240</v>
       </c>
@@ -6930,8 +8048,12 @@
       <c r="G235" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H235" t="str">
+        <f t="shared" si="9"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>240</v>
       </c>
@@ -6953,8 +8075,12 @@
       <c r="G236" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H236" t="str">
+        <f t="shared" si="9"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>242</v>
       </c>
@@ -6976,8 +8102,11 @@
       <c r="G237" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H237">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>242</v>
       </c>
@@ -6999,8 +8128,11 @@
       <c r="G238" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H238">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>242</v>
       </c>
@@ -7022,8 +8154,11 @@
       <c r="G239" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H239">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>242</v>
       </c>
@@ -7045,8 +8180,11 @@
       <c r="G240" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H240">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>242</v>
       </c>
@@ -7068,8 +8206,11 @@
       <c r="G241" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H241">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>242</v>
       </c>
@@ -7091,8 +8232,11 @@
       <c r="G242" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H242">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>242</v>
       </c>
@@ -7114,8 +8258,11 @@
       <c r="G243" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H243">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>242</v>
       </c>
@@ -7137,8 +8284,11 @@
       <c r="G244" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H244">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>242</v>
       </c>
@@ -7160,8 +8310,11 @@
       <c r="G245" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H245">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>242</v>
       </c>
@@ -7183,8 +8336,11 @@
       <c r="G246" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H246">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>242</v>
       </c>
@@ -7206,8 +8362,11 @@
       <c r="G247" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H247">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>242</v>
       </c>
@@ -7229,8 +8388,11 @@
       <c r="G248" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H248">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>246</v>
       </c>
@@ -7252,8 +8414,12 @@
       <c r="G249" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H249" t="str">
+        <f t="shared" si="9"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>246</v>
       </c>
@@ -7275,8 +8441,11 @@
       <c r="G250" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H250" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>246</v>
       </c>
@@ -7298,8 +8467,11 @@
       <c r="G251" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H251" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>246</v>
       </c>
@@ -7321,8 +8493,11 @@
       <c r="G252" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H252" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>246</v>
       </c>
@@ -7344,8 +8519,11 @@
       <c r="G253" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H253">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>248</v>
       </c>
@@ -7367,8 +8545,12 @@
       <c r="G254" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H254" t="str">
+        <f t="shared" si="9"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>248</v>
       </c>
@@ -7390,8 +8572,12 @@
       <c r="G255" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H255" t="str">
+        <f t="shared" si="9"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>248</v>
       </c>
@@ -7413,8 +8599,11 @@
       <c r="G256" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H256" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>248</v>
       </c>
@@ -7436,8 +8625,11 @@
       <c r="G257" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H257">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>248</v>
       </c>
@@ -7459,8 +8651,11 @@
       <c r="G258" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H258">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>250</v>
       </c>
@@ -7482,8 +8677,12 @@
       <c r="G259" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H259" t="str">
+        <f t="shared" si="9"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>252</v>
       </c>
@@ -7505,8 +8704,11 @@
       <c r="G260" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H260" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>252</v>
       </c>
@@ -7528,8 +8730,11 @@
       <c r="G261" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H261" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>252</v>
       </c>
@@ -7551,8 +8756,11 @@
       <c r="G262" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H262" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>252</v>
       </c>
@@ -7574,8 +8782,11 @@
       <c r="G263" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H263" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>257</v>
       </c>
@@ -7597,8 +8808,11 @@
       <c r="G264" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H264" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>257</v>
       </c>
@@ -7620,8 +8834,11 @@
       <c r="G265" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H265" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>257</v>
       </c>
@@ -7643,8 +8860,11 @@
       <c r="G266" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H266" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>257</v>
       </c>
@@ -7666,8 +8886,11 @@
       <c r="G267" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H267" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>257</v>
       </c>
@@ -7689,8 +8912,11 @@
       <c r="G268" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H268" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>257</v>
       </c>
@@ -7712,8 +8938,11 @@
       <c r="G269" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H269">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>257</v>
       </c>
@@ -7735,8 +8964,11 @@
       <c r="G270" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H270">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>257</v>
       </c>
@@ -7758,8 +8990,11 @@
       <c r="G271" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H271">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>263</v>
       </c>
@@ -7781,8 +9016,11 @@
       <c r="G272" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H272">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>263</v>
       </c>
@@ -7804,8 +9042,11 @@
       <c r="G273" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H273">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>263</v>
       </c>
@@ -7827,8 +9068,11 @@
       <c r="G274" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H274" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>263</v>
       </c>
@@ -7850,8 +9094,11 @@
       <c r="G275" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H275">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>263</v>
       </c>
@@ -7873,8 +9120,11 @@
       <c r="G276" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H276" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>263</v>
       </c>
@@ -7896,8 +9146,11 @@
       <c r="G277" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H277">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>267</v>
       </c>
@@ -7919,8 +9172,11 @@
       <c r="G278" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>267</v>
       </c>
@@ -7942,8 +9198,11 @@
       <c r="G279" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H279">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>267</v>
       </c>
@@ -7965,8 +9224,11 @@
       <c r="G280" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H280">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>269</v>
       </c>
@@ -7988,8 +9250,11 @@
       <c r="G281" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H281" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>269</v>
       </c>
@@ -8011,8 +9276,11 @@
       <c r="G282" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H282" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>269</v>
       </c>
@@ -8034,8 +9302,11 @@
       <c r="G283" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H283" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>269</v>
       </c>
@@ -8057,8 +9328,11 @@
       <c r="G284" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H284">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>271</v>
       </c>
@@ -8080,8 +9354,12 @@
       <c r="G285" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H285" t="str">
+        <f t="shared" ref="H284:H347" si="10">IF(F285 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F285 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F285 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F285 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F285 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F285 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F285 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>271</v>
       </c>
@@ -8103,8 +9381,12 @@
       <c r="G286" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H286" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>273</v>
       </c>
@@ -8126,8 +9408,12 @@
       <c r="G287" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H287" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>273</v>
       </c>
@@ -8149,8 +9435,11 @@
       <c r="G288" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H288" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>273</v>
       </c>
@@ -8172,8 +9461,12 @@
       <c r="G289" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H289" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>273</v>
       </c>
@@ -8195,8 +9488,11 @@
       <c r="G290" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H290" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>273</v>
       </c>
@@ -8218,8 +9514,11 @@
       <c r="G291" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H291">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>277</v>
       </c>
@@ -8241,8 +9540,12 @@
       <c r="G292" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H292" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>277</v>
       </c>
@@ -8264,8 +9567,12 @@
       <c r="G293" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H293" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>279</v>
       </c>
@@ -8287,8 +9594,11 @@
       <c r="G294" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H294">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>279</v>
       </c>
@@ -8310,8 +9620,12 @@
       <c r="G295" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H295" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>279</v>
       </c>
@@ -8333,8 +9647,11 @@
       <c r="G296" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H296" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>279</v>
       </c>
@@ -8356,8 +9673,12 @@
       <c r="G297" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H297" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>279</v>
       </c>
@@ -8379,8 +9700,12 @@
       <c r="G298" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H298" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>281</v>
       </c>
@@ -8402,8 +9727,12 @@
       <c r="G299" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H299" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>281</v>
       </c>
@@ -8425,8 +9754,12 @@
       <c r="G300" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H300" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>281</v>
       </c>
@@ -8448,8 +9781,12 @@
       <c r="G301" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H301" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>281</v>
       </c>
@@ -8471,8 +9808,12 @@
       <c r="G302" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H302" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>283</v>
       </c>
@@ -8494,8 +9835,12 @@
       <c r="G303" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H303" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>285</v>
       </c>
@@ -8517,8 +9862,12 @@
       <c r="G304" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H304" t="str">
+        <f t="shared" si="10"/>
+        <v>2,4,6,8,10,12</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>285</v>
       </c>
@@ -8540,8 +9889,11 @@
       <c r="G305" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H305" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>285</v>
       </c>
@@ -8563,8 +9915,12 @@
       <c r="G306" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H306" t="str">
+        <f t="shared" si="10"/>
+        <v>14,16,18,21,23,25</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>285</v>
       </c>
@@ -8586,8 +9942,11 @@
       <c r="G307" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H307" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>288</v>
       </c>
@@ -8609,8 +9968,11 @@
       <c r="G308" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H308" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>288</v>
       </c>
@@ -8632,8 +9994,12 @@
       <c r="G309" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H309" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>288</v>
       </c>
@@ -8655,8 +10021,11 @@
       <c r="G310" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H310">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>290</v>
       </c>
@@ -8678,8 +10047,12 @@
       <c r="G311" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H311" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>290</v>
       </c>
@@ -8701,8 +10074,12 @@
       <c r="G312" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H312" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>292</v>
       </c>
@@ -8724,8 +10101,12 @@
       <c r="G313" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H313" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>292</v>
       </c>
@@ -8747,8 +10128,12 @@
       <c r="G314" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H314" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>294</v>
       </c>
@@ -8770,8 +10155,12 @@
       <c r="G315" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H315" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>294</v>
       </c>
@@ -8793,8 +10182,12 @@
       <c r="G316" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H316" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>296</v>
       </c>
@@ -8816,8 +10209,12 @@
       <c r="G317" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H317" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>296</v>
       </c>
@@ -8839,8 +10236,12 @@
       <c r="G318" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H318" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>298</v>
       </c>
@@ -8862,8 +10263,12 @@
       <c r="G319" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H319" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>298</v>
       </c>
@@ -8885,8 +10290,12 @@
       <c r="G320" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H320" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>300</v>
       </c>
@@ -8908,8 +10317,12 @@
       <c r="G321" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H321" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>300</v>
       </c>
@@ -8931,8 +10344,12 @@
       <c r="G322" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H322" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>302</v>
       </c>
@@ -8954,8 +10371,12 @@
       <c r="G323" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H323" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>302</v>
       </c>
@@ -8977,8 +10398,11 @@
       <c r="G324" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H324" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>302</v>
       </c>
@@ -9000,8 +10424,11 @@
       <c r="G325" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H325">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>302</v>
       </c>
@@ -9023,8 +10450,11 @@
       <c r="G326" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H326">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>302</v>
       </c>
@@ -9046,8 +10476,11 @@
       <c r="G327" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H327">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>302</v>
       </c>
@@ -9069,8 +10502,12 @@
       <c r="G328" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H328" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>302</v>
       </c>
@@ -9092,8 +10529,11 @@
       <c r="G329" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H329" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>302</v>
       </c>
@@ -9115,8 +10555,11 @@
       <c r="G330" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H330">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>302</v>
       </c>
@@ -9138,8 +10581,11 @@
       <c r="G331" s="3" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H331">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>305</v>
       </c>
@@ -9161,8 +10607,12 @@
       <c r="G332" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H332" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>305</v>
       </c>
@@ -9184,8 +10634,12 @@
       <c r="G333" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H333" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>305</v>
       </c>
@@ -9207,8 +10661,12 @@
       <c r="G334" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H334" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>308</v>
       </c>
@@ -9230,8 +10688,12 @@
       <c r="G335" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H335" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>308</v>
       </c>
@@ -9253,8 +10715,12 @@
       <c r="G336" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H336" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>310</v>
       </c>
@@ -9276,8 +10742,12 @@
       <c r="G337" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H337" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>310</v>
       </c>
@@ -9299,8 +10769,12 @@
       <c r="G338" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H338" t="str">
+        <f t="shared" si="10"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="339" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>312</v>
       </c>
@@ -9322,8 +10796,11 @@
       <c r="G339" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H339" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="340" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>312</v>
       </c>
@@ -9345,8 +10822,11 @@
       <c r="G340" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H340" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>312</v>
       </c>
@@ -9368,8 +10848,11 @@
       <c r="G341" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H341">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="342" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>312</v>
       </c>
@@ -9391,8 +10874,11 @@
       <c r="G342" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H342" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>312</v>
       </c>
@@ -9414,8 +10900,11 @@
       <c r="G343" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H343">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="344" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>312</v>
       </c>
@@ -9437,8 +10926,11 @@
       <c r="G344" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H344">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>316</v>
       </c>
@@ -9460,8 +10952,12 @@
       <c r="G345" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H345" t="str">
+        <f t="shared" si="10"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>316</v>
       </c>
@@ -9483,8 +10979,11 @@
       <c r="G346" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H346" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>316</v>
       </c>
@@ -9506,8 +11005,11 @@
       <c r="G347" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H347" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>316</v>
       </c>
@@ -9529,8 +11031,12 @@
       <c r="G348" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H348" t="str">
+        <f t="shared" ref="H348:H378" si="11">IF(F348 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F348 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F348 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F348 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F348 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F348 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F348 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>316</v>
       </c>
@@ -9552,8 +11058,11 @@
       <c r="G349" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H349" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>316</v>
       </c>
@@ -9575,8 +11084,11 @@
       <c r="G350" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H350">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>319</v>
       </c>
@@ -9598,8 +11110,12 @@
       <c r="G351" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H351" t="str">
+        <f t="shared" si="11"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>321</v>
       </c>
@@ -9621,8 +11137,12 @@
       <c r="G352" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H352" t="str">
+        <f t="shared" si="11"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>321</v>
       </c>
@@ -9644,8 +11164,12 @@
       <c r="G353" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H353" t="str">
+        <f t="shared" si="11"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>321</v>
       </c>
@@ -9667,8 +11191,11 @@
       <c r="G354" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H354" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>321</v>
       </c>
@@ -9690,8 +11217,11 @@
       <c r="G355" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H355" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>321</v>
       </c>
@@ -9713,8 +11243,11 @@
       <c r="G356" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H356" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>321</v>
       </c>
@@ -9736,8 +11269,11 @@
       <c r="G357" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H357" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>323</v>
       </c>
@@ -9759,8 +11295,12 @@
       <c r="G358" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H358" t="str">
+        <f t="shared" si="11"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>323</v>
       </c>
@@ -9782,8 +11322,11 @@
       <c r="G359" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H359">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>323</v>
       </c>
@@ -9805,8 +11348,12 @@
       <c r="G360" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H360" t="str">
+        <f t="shared" si="11"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>326</v>
       </c>
@@ -9828,8 +11375,12 @@
       <c r="G361" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H361" t="str">
+        <f t="shared" si="11"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>326</v>
       </c>
@@ -9851,8 +11402,11 @@
       <c r="G362" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H362" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>326</v>
       </c>
@@ -9874,8 +11428,12 @@
       <c r="G363" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H363" t="str">
+        <f t="shared" si="11"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>326</v>
       </c>
@@ -9897,8 +11455,11 @@
       <c r="G364" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H364" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>328</v>
       </c>
@@ -9920,8 +11481,12 @@
       <c r="G365" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H365" t="str">
+        <f t="shared" si="11"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>328</v>
       </c>
@@ -9943,8 +11508,12 @@
       <c r="G366" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H366" t="str">
+        <f t="shared" si="11"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>328</v>
       </c>
@@ -9966,8 +11535,11 @@
       <c r="G367" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H367">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>328</v>
       </c>
@@ -9989,8 +11561,11 @@
       <c r="G368" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H368">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>328</v>
       </c>
@@ -10012,8 +11587,11 @@
       <c r="G369" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H369">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>328</v>
       </c>
@@ -10035,8 +11613,11 @@
       <c r="G370" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H370">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>330</v>
       </c>
@@ -10058,8 +11639,12 @@
       <c r="G371" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H371" t="str">
+        <f t="shared" si="11"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>332</v>
       </c>
@@ -10081,8 +11666,12 @@
       <c r="G372" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H372" t="str">
+        <f t="shared" si="11"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>332</v>
       </c>
@@ -10104,8 +11693,11 @@
       <c r="G373" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H373" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>332</v>
       </c>
@@ -10127,8 +11719,11 @@
       <c r="G374" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H374" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>334</v>
       </c>
@@ -10150,8 +11745,12 @@
       <c r="G375" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H375" t="str">
+        <f t="shared" si="11"/>
+        <v>2,3,4,5,6,8,9,10,11,12,13</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>334</v>
       </c>
@@ -10173,8 +11772,11 @@
       <c r="G376" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H376">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>334</v>
       </c>
@@ -10196,8 +11798,11 @@
       <c r="G377" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H377">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>334</v>
       </c>
@@ -10218,6 +11823,10 @@
       </c>
       <c r="G378" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="H378" t="str">
+        <f t="shared" si="11"/>
+        <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
       </c>
     </row>
   </sheetData>

--- a/data/course_data/Units/Unit_Times.xlsx
+++ b/data/course_data/Units/Unit_Times.xlsx
@@ -1689,8 +1689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1826,7 +1826,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H67" si="0">IF(F4 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F4 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", ""))</f>
+        <f t="shared" ref="H4:H12" si="0">IF(F4 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F4 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", ""))</f>
         <v>2,3,4,5,6,8,9,10,11,12,13</v>
       </c>
       <c r="J4">
@@ -2156,7 +2156,7 @@
         <v>10</v>
       </c>
       <c r="H14" t="str">
-        <f t="shared" ref="H14:H77" si="1">IF(F14 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F14 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F14 = "26,28,30,33,35,40", "14,16,18,21,23,25", "")))</f>
+        <f t="shared" ref="H14" si="1">IF(F14 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F14 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F14 = "26,28,30,33,35,40", "14,16,18,21,23,25", "")))</f>
         <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
       </c>
       <c r="J14">
@@ -2222,7 +2222,7 @@
         <v>10</v>
       </c>
       <c r="H16" t="str">
-        <f t="shared" ref="H16:H79" si="2">IF(F16 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F16 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F16 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F16 = "9,11,13,16,18,20", "2,4,6,9,11,13", ""))))</f>
+        <f t="shared" ref="H16" si="2">IF(F16 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F16 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F16 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F16 = "9,11,13,16,18,20", "2,4,6,9,11,13", ""))))</f>
         <v>2,3,4,5,6,8,9,10,11,12,13</v>
       </c>
       <c r="J16">
@@ -2319,7 +2319,7 @@
         <v>19</v>
       </c>
       <c r="H19" t="str">
-        <f t="shared" ref="H18:H81" si="3">IF(F19 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F19 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F19 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F19 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F19 = 19, "12", "")))))</f>
+        <f t="shared" ref="H19:H20" si="3">IF(F19 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F19 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F19 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F19 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F19 = 19, "12", "")))))</f>
         <v>14,16,18,21,23,25</v>
       </c>
       <c r="J19">
@@ -2482,7 +2482,7 @@
         <v>44</v>
       </c>
       <c r="H24" t="str">
-        <f t="shared" ref="H24:H87" si="4">IF(F24 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F24 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F24 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F24 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F24 = "9,11,13,15,17,19", "2,4,6,8,10,12", "")))))</f>
+        <f t="shared" ref="H24" si="4">IF(F24 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F24 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F24 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F24 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F24 = "9,11,13,15,17,19", "2,4,6,8,10,12", "")))))</f>
         <v>2,4,6,8,10,12</v>
       </c>
       <c r="J24">
@@ -2542,7 +2542,7 @@
         <v>44</v>
       </c>
       <c r="H26" t="str">
-        <f t="shared" ref="H26:H89" si="5">IF(F26 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F26 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F26 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F26 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F26 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F26 = "27,29,31,33,35,40", "15,17,19,21,23,25", ""))))))</f>
+        <f t="shared" ref="H26" si="5">IF(F26 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F26 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F26 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F26 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F26 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F26 = "27,29,31,33,35,40", "15,17,19,21,23,25", ""))))))</f>
         <v>15,17,19,21,23,25</v>
       </c>
     </row>
@@ -2674,7 +2674,7 @@
         <v>25</v>
       </c>
       <c r="H31" t="str">
-        <f t="shared" ref="H28:H91" si="6">IF(F31 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F31 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F31 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F31 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F31 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F31 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F31 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
+        <f t="shared" ref="H31:H90" si="6">IF(F31 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F31 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F31 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F31 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F31 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F31 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F31 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
         <v>14,15,16,17,18,19,21,22,23,24,25,26</v>
       </c>
     </row>
@@ -4498,7 +4498,7 @@
         <v>10</v>
       </c>
       <c r="H100" t="str">
-        <f t="shared" ref="H92:H155" si="7">IF(F100 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F100 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F100 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F100 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F100 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F100 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F100 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
+        <f t="shared" ref="H100:H145" si="7">IF(F100 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F100 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F100 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F100 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F100 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F100 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F100 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
         <v>2,3,4,5,6,8,9,10,11,12,13</v>
       </c>
     </row>
@@ -5971,7 +5971,7 @@
         <v>25</v>
       </c>
       <c r="H156" t="str">
-        <f t="shared" ref="H156:H219" si="8">IF(F156 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F156 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F156 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F156 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F156 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F156 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F156 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
+        <f t="shared" ref="H156:H216" si="8">IF(F156 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F156 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F156 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F156 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F156 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F156 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F156 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
         <v>2,3,4,5,6,8,9,10,11,12,13</v>
       </c>
     </row>
@@ -7887,7 +7887,7 @@
         <v>127</v>
       </c>
       <c r="H229" t="str">
-        <f t="shared" ref="H220:H283" si="9">IF(F229 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F229 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F229 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F229 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F229 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F229 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F229 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
+        <f t="shared" ref="H229:H259" si="9">IF(F229 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F229 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F229 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F229 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F229 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F229 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F229 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
         <v>2,3,4,5,6,8,9,10,11,12,13</v>
       </c>
     </row>
@@ -9355,7 +9355,7 @@
         <v>10</v>
       </c>
       <c r="H285" t="str">
-        <f t="shared" ref="H284:H347" si="10">IF(F285 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F285 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F285 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F285 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F285 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F285 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F285 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
+        <f t="shared" ref="H285:H345" si="10">IF(F285 = "9-13,15-20", "2,3,4,5,6,8,9,10,11,12,13", IF(F285 = "26-31,33-36,40-41", "14,15,16,17,18,19,21,22,23,24,25,26", IF(F285 = "26,28,30,33,35,40", "14,16,18,21,23,25", IF(F285 = "9,11,13,16,18,20", "2,4,6,9,11,13", IF(F285 = "9,11,13,15,17,19", "2,4,6,8,10,12", IF(F285 = "27,29,31,33,35,40", "15,17,19,21,23,25", IF(F285 = "9,13,16,18,20", "2,6,9,11,13", "")))))))</f>
         <v>2,3,4,5,6,8,9,10,11,12,13</v>
       </c>
     </row>
